--- a/COVID19Data/UK.xlsx
+++ b/COVID19Data/UK.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新冠肺炎个案数据\计算\COVID19Data\data-of-country\maincountry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\songyk\EpiEstim3\COVID19\COVID19Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1459A093-2E1F-4331-BCC3-412B4590420A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15036" windowHeight="6576"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
   <si>
     <t>date</t>
   </si>
@@ -245,6 +246,23 @@
   <si>
     <t>0</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200428</t>
+  </si>
+  <si>
+    <t>20200429</t>
+  </si>
+  <si>
+    <t>20200430</t>
   </si>
   <si>
     <t>0</t>
@@ -258,8 +276,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,20 +655,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -690,7 +708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -710,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -730,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -750,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -770,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -790,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -810,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -830,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>20200213</v>
       </c>
@@ -850,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -870,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -890,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -910,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -930,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -950,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -970,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -990,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1010,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1030,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>20200223</v>
       </c>
@@ -1050,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1070,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1090,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1110,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1130,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>20200228</v>
       </c>
@@ -1150,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>20200229</v>
       </c>
@@ -1170,7 +1188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>20200301</v>
       </c>
@@ -1190,7 +1208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>20200302</v>
       </c>
@@ -1210,7 +1228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>20200303</v>
       </c>
@@ -1230,7 +1248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>20200304</v>
       </c>
@@ -1250,7 +1268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>20200305</v>
       </c>
@@ -1270,7 +1288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>20200306</v>
       </c>
@@ -1290,7 +1308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>20200307</v>
       </c>
@@ -1310,7 +1328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>20200308</v>
       </c>
@@ -1330,7 +1348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>20200309</v>
       </c>
@@ -1350,7 +1368,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>20200310</v>
       </c>
@@ -1370,7 +1388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>20200311</v>
       </c>
@@ -1390,7 +1408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>20200312</v>
       </c>
@@ -1410,7 +1428,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>20200313</v>
       </c>
@@ -1430,7 +1448,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>20200314</v>
       </c>
@@ -1450,7 +1468,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>20200315</v>
       </c>
@@ -1470,7 +1488,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>20200316</v>
       </c>
@@ -1490,7 +1508,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>20200317</v>
       </c>
@@ -1510,7 +1528,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>20200318</v>
       </c>
@@ -1530,7 +1548,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>20200319</v>
       </c>
@@ -1550,7 +1568,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>20200320</v>
       </c>
@@ -1570,7 +1588,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>20200321</v>
       </c>
@@ -1590,7 +1608,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>20200322</v>
       </c>
@@ -1610,7 +1628,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>20200323</v>
       </c>
@@ -1630,7 +1648,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>20200324</v>
       </c>
@@ -1650,7 +1668,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>20200325</v>
       </c>
@@ -1670,7 +1688,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>20200326</v>
       </c>
@@ -1690,7 +1708,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>20200327</v>
       </c>
@@ -1710,7 +1728,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>20200328</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>20200329</v>
       </c>
@@ -1750,7 +1768,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>20200330</v>
       </c>
@@ -1770,7 +1788,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>20200331</v>
       </c>
@@ -1790,7 +1808,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>20200401</v>
       </c>
@@ -1810,7 +1828,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>20200402</v>
       </c>
@@ -1830,7 +1848,7 @@
         <v>4234</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>20200403</v>
       </c>
@@ -1850,7 +1868,7 @@
         <v>4244</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>20200404</v>
       </c>
@@ -1870,7 +1888,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>20200405</v>
       </c>
@@ -1890,7 +1908,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>20200406</v>
       </c>
@@ -1910,7 +1928,7 @@
         <v>5903</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>20200407</v>
       </c>
@@ -1930,7 +1948,7 @@
         <v>3802</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>20200408</v>
       </c>
@@ -1950,7 +1968,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>20200409</v>
       </c>
@@ -1970,7 +1988,7 @@
         <v>5491</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>20200410</v>
       </c>
@@ -1990,7 +2008,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>20200411</v>
       </c>
@@ -2010,7 +2028,7 @@
         <v>5195</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>20200412</v>
       </c>
@@ -2030,7 +2048,7 @@
         <v>8719</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>20200413</v>
       </c>
@@ -2050,7 +2068,7 @@
         <v>5288</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>20200414</v>
       </c>
@@ -2070,7 +2088,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>20200415</v>
       </c>
@@ -2090,7 +2108,7 @@
         <v>5252</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>20200416</v>
       </c>
@@ -2110,7 +2128,7 @@
         <v>4603</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>20200417</v>
       </c>
@@ -2130,7 +2148,7 @@
         <v>4617</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>20200418</v>
       </c>
@@ -2150,7 +2168,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>20200419</v>
       </c>
@@ -2170,7 +2188,7 @@
         <v>5525</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>20200420</v>
       </c>
@@ -2190,7 +2208,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>20200421</v>
       </c>
@@ -2210,7 +2228,7 @@
         <v>4676</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>20200422</v>
       </c>
@@ -2230,7 +2248,7 @@
         <v>4301</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>20200423</v>
       </c>
@@ -2250,7 +2268,7 @@
         <v>4451</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>20200424</v>
       </c>
@@ -2270,7 +2288,7 @@
         <v>4583</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>20200425</v>
       </c>
@@ -2290,7 +2308,7 @@
         <v>5386</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>20200426</v>
       </c>
@@ -2310,7 +2328,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>20200427</v>
       </c>
@@ -2328,6 +2346,526 @@
       </c>
       <c r="F84">
         <v>4463</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>4309</v>
+      </c>
+      <c r="F85">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>3996</v>
+      </c>
+      <c r="F86">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>4076</v>
+      </c>
+      <c r="F87">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>20200501</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>6032</v>
+      </c>
+      <c r="F88">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>20200502</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>6201</v>
+      </c>
+      <c r="F89">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>20200503</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>4806</v>
+      </c>
+      <c r="F90">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>20200504</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>4339</v>
+      </c>
+      <c r="F91">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>20200505</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>3985</v>
+      </c>
+      <c r="F92">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>20200506</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>4406</v>
+      </c>
+      <c r="F93">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>20200507</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>6211</v>
+      </c>
+      <c r="F94">
+        <v>6211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>20200508</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>5514</v>
+      </c>
+      <c r="F95">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>20200509</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>4649</v>
+      </c>
+      <c r="F96">
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>20200510</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>3896</v>
+      </c>
+      <c r="F97">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>20200511</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>3923</v>
+      </c>
+      <c r="F98">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>20200512</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>3877</v>
+      </c>
+      <c r="F99">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>20200513</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>3403</v>
+      </c>
+      <c r="F100">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>20200514</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>3242</v>
+      </c>
+      <c r="F101">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>20200515</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>3446</v>
+      </c>
+      <c r="F102">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>20200516</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>3560</v>
+      </c>
+      <c r="F103">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>20200517</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>3450</v>
+      </c>
+      <c r="F104">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>20200518</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>3534</v>
+      </c>
+      <c r="F105">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>20200519</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>2711</v>
+      </c>
+      <c r="F106">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>20200520</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>2412</v>
+      </c>
+      <c r="F107">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>20200521</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>20200522</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>2615</v>
+      </c>
+      <c r="F109">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>20200523</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>3287</v>
+      </c>
+      <c r="F110">
+        <v>3287</v>
       </c>
     </row>
   </sheetData>
